--- a/xlsx/印度尼西亞_intext.xlsx
+++ b/xlsx/印度尼西亞_intext.xlsx
@@ -29,7 +29,7 @@
     <t>印度尼西亚国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_印度尼西亞</t>
+    <t>体育运动_体育运动_南非_印度尼西亞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A%E5%9B%BD%E5%BE%BD</t>
@@ -6467,7 +6467,7 @@
         <v>126</v>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
@@ -19314,7 +19314,7 @@
         <v>898</v>
       </c>
       <c r="G509" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H509" t="s">
         <v>4</v>
@@ -20213,7 +20213,7 @@
         <v>956</v>
       </c>
       <c r="G540" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H540" t="s">
         <v>4</v>
